--- a/doc/task06/Scrum_v0.1.xlsx
+++ b/doc/task06/Scrum_v0.1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajilatha.kandiah\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F04D65-0C3D-4173-A64A-37ECCDB3EE1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="0" windowWidth="27840" windowHeight="12810" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -12,11 +18,12 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -24,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="100">
   <si>
     <t>ID</t>
   </si>
@@ -44,24 +51,12 @@
     <t>high</t>
   </si>
   <si>
-    <t>medium</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>waiting</t>
   </si>
   <si>
-    <t>work in progress</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -77,18 +72,6 @@
     <t>Effort Actual</t>
   </si>
   <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Hans</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
     <t>Database</t>
   </si>
   <si>
@@ -96,15 +79,6 @@
   </si>
   <si>
     <t>All</t>
-  </si>
-  <si>
-    <t>Main Window</t>
-  </si>
-  <si>
-    <t>Patient Model</t>
-  </si>
-  <si>
-    <t>Data model for patient record needs to be created based on standard....</t>
   </si>
   <si>
     <t>Effort Plan Original</t>
@@ -234,13 +208,142 @@
   </si>
   <si>
     <t>10h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Layout </t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Main Controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database </t>
+  </si>
+  <si>
+    <t>View template</t>
+  </si>
+  <si>
+    <t>Create a view template, which can be used for all pages</t>
+  </si>
+  <si>
+    <t>Create the navigation bar</t>
+  </si>
+  <si>
+    <t>Navigation bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Saving the report</t>
+  </si>
+  <si>
+    <t>Update the report</t>
+  </si>
+  <si>
+    <t>Response after saving</t>
+  </si>
+  <si>
+    <t>Poping up a message that the report is succesfuly  saved.</t>
+  </si>
+  <si>
+    <t>Create UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Properly saving the data from the report into the database</t>
+  </si>
+  <si>
+    <t>Database, controller, UI</t>
+  </si>
+  <si>
+    <t>Controller, UI</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>UI,Controller</t>
+  </si>
+  <si>
+    <t>Posibility to edit and view the report</t>
+  </si>
+  <si>
+    <t>Create project</t>
+  </si>
+  <si>
+    <t>Create the controller for the home page and make the connection to the view</t>
+  </si>
+  <si>
+    <t>Create controller</t>
+  </si>
+  <si>
+    <t>Create the view to display all patient informations</t>
+  </si>
+  <si>
+    <t>Create new vaadin project with all configurations</t>
+  </si>
+  <si>
+    <t>Create database with all tables</t>
+  </si>
+  <si>
+    <t>Creating a new view with all UIcomponents, that the employee can write the report about the patients</t>
+  </si>
+  <si>
+    <t>Create the controller for the Report-view</t>
+  </si>
+  <si>
+    <t>Create the controller for the Patient-view</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Properly read the data of the patient from the database and display them in the view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show patient informations </t>
+  </si>
+  <si>
+    <t>Show task list</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Properly read the tasklist of the patient from the database and display them in the view</t>
+  </si>
+  <si>
+    <t>Database, Controller, UI</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Rajilatha</t>
+  </si>
+  <si>
+    <t>Ueli</t>
+  </si>
+  <si>
+    <t>Nikola</t>
+  </si>
+  <si>
+    <t>Raphael</t>
+  </si>
+  <si>
+    <t>Christoph</t>
+  </si>
+  <si>
+    <t>21h</t>
+  </si>
+  <si>
+    <t>16h</t>
+  </si>
+  <si>
+    <t>17h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,8 +367,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +395,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -298,13 +415,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -326,9 +440,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -345,9 +485,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -385,9 +525,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,9 +560,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,9 +612,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -630,318 +804,324 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://github.com/smowdy"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://github.com/ceoy"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://github.com/raji98"/>
-    <hyperlink ref="B6" r:id="rId4" display="https://github.com/nristicBFH"/>
-    <hyperlink ref="B7" r:id="rId5" display="https://github.com/suttc1"/>
-    <hyperlink ref="B5" r:id="rId6" display="https://github.com/DerRaphe"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://github.com/smowdy" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://github.com/ceoy" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://github.com/raji98" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://github.com/nristicBFH" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://github.com/suttc1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B5" r:id="rId6" display="https://github.com/DerRaphe" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.73046875" customWidth="1"/>
+    <col min="2" max="2" width="24.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.73046875" customWidth="1"/>
+    <col min="4" max="4" width="15.265625" customWidth="1"/>
+    <col min="5" max="5" width="11.73046875" customWidth="1"/>
+    <col min="6" max="6" width="13.1328125" customWidth="1"/>
+    <col min="7" max="7" width="10.1328125" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="C9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9" t="s">
-        <v>8</v>
+      <c r="D10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -951,232 +1131,520 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.73046875" customWidth="1"/>
+    <col min="2" max="2" width="6.265625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" customWidth="1"/>
+    <col min="5" max="5" width="19.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.265625" customWidth="1"/>
+    <col min="7" max="7" width="9.73046875" customWidth="1"/>
+    <col min="8" max="8" width="8.265625" customWidth="1"/>
+    <col min="9" max="9" width="7.86328125" customWidth="1"/>
+    <col min="10" max="10" width="9.1328125" customWidth="1"/>
+    <col min="11" max="11" width="7.265625" customWidth="1"/>
+    <col min="12" max="12" width="15.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="18">
+        <v>2</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="19">
+        <f>SUM(I3:I7)</f>
+        <v>21</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2.1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>2.4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>2.5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A10" s="18">
+        <v>4</v>
+      </c>
+      <c r="B10" s="18">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="13">
+        <f>SUM(I11:I14)</f>
+        <v>16</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="L11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>4.2</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="L12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>4.3</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="L13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="57.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="L14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C15" s="9"/>
+      <c r="D15" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="18">
+        <v>6</v>
+      </c>
+      <c r="B17" s="18">
+        <v>1</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="17">
+        <f>SUM(I18:I22)</f>
+        <v>17</v>
+      </c>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>6.1</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="L18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="L19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>6.2</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="L20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>6.3</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1.2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>6</v>
-      </c>
-      <c r="K3">
-        <v>4</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1.3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>16</v>
-      </c>
-      <c r="J4">
-        <v>20</v>
-      </c>
-      <c r="K4">
-        <f>SUM(J4:J4)</f>
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2.1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-      <c r="L5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>8</v>
-      </c>
-      <c r="J6">
-        <v>6</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6" t="s">
-        <v>9</v>
+      <c r="L21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>6.4</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="L22" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1185,39 +1653,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>42262</v>
       </c>
       <c r="C2">
@@ -1227,11 +1695,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>42263</v>
       </c>
       <c r="C3">

--- a/doc/task06/Scrum_v0.1.xlsx
+++ b/doc/task06/Scrum_v0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajilatha.kandiah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F04D65-0C3D-4173-A64A-37ECCDB3EE1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A1CFB9-C7BE-421F-8E15-CB49F329416A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="121">
   <si>
     <t>ID</t>
   </si>
@@ -148,10 +148,6 @@
   </si>
   <si>
     <t>Login</t>
-  </si>
-  <si>
-    <t>The page the health visitor will
-see after a successful login.</t>
   </si>
   <si>
     <t>The user has to login to use the app</t>
@@ -178,9 +174,6 @@
     <t>med</t>
   </si>
   <si>
-    <t>Patient Info Page</t>
-  </si>
-  <si>
     <t>Patient Report Page</t>
   </si>
   <si>
@@ -279,12 +272,6 @@
     <t>Create controller</t>
   </si>
   <si>
-    <t>Create the view to display all patient informations</t>
-  </si>
-  <si>
-    <t>Create new vaadin project with all configurations</t>
-  </si>
-  <si>
     <t>Create database with all tables</t>
   </si>
   <si>
@@ -294,21 +281,9 @@
     <t>Create the controller for the Report-view</t>
   </si>
   <si>
-    <t>Create the controller for the Patient-view</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Properly read the data of the patient from the database and display them in the view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Show patient informations </t>
-  </si>
-  <si>
     <t>Show task list</t>
   </si>
   <si>
-    <t xml:space="preserve"> Properly read the tasklist of the patient from the database and display them in the view</t>
-  </si>
-  <si>
     <t>Database, Controller, UI</t>
   </si>
   <si>
@@ -330,13 +305,103 @@
     <t>Christoph</t>
   </si>
   <si>
-    <t>21h</t>
-  </si>
-  <si>
     <t>16h</t>
   </si>
   <si>
     <t>17h</t>
+  </si>
+  <si>
+    <t>Creating a new view with all UI components for the day overview</t>
+  </si>
+  <si>
+    <t>Create the controller for the Landing-page</t>
+  </si>
+  <si>
+    <t>Show appointments of the day</t>
+  </si>
+  <si>
+    <t>Mock data</t>
+  </si>
+  <si>
+    <t>Add some mock data to the database</t>
+  </si>
+  <si>
+    <t>Link to patient page</t>
+  </si>
+  <si>
+    <t>Appointment Info Page</t>
+  </si>
+  <si>
+    <t>Create the view to display all informations to the appointment</t>
+  </si>
+  <si>
+    <t>Create the controller for the Appointment-view</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Properly read the data of the appointment from the database and display them in the view</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Properly read the tasklist of the appointment from the database and display them in the view</t>
+  </si>
+  <si>
+    <t>Create a link from the landing page to the Appointment info page</t>
+  </si>
+  <si>
+    <t>Configurations</t>
+  </si>
+  <si>
+    <t>Set up the project configurations</t>
+  </si>
+  <si>
+    <t>Display all the specified information
+about the appointment</t>
+  </si>
+  <si>
+    <t>The day overview, the health visitor will
+see after a successful login</t>
+  </si>
+  <si>
+    <t>Create navigation bar and initial
+layout of the app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show appointment informations </t>
+  </si>
+  <si>
+    <t>Properly read all appointments of the user of the day and show them in the view</t>
+  </si>
+  <si>
+    <t>Day overview model</t>
+  </si>
+  <si>
+    <t>Create the data model for the day overview</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Create the data model for the appointment</t>
+  </si>
+  <si>
+    <t>Appointment model</t>
+  </si>
+  <si>
+    <t>Create new vaadin project</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Add some mock data for the tasks and appointments to the database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajilatha </t>
+  </si>
+  <si>
+    <t>24h</t>
+  </si>
+  <si>
+    <t>14h</t>
   </si>
 </sst>
 </file>
@@ -415,7 +480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -443,17 +508,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -465,6 +523,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -808,7 +869,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -890,7 +951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -940,16 +1001,16 @@
         <v>38</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>18</v>
@@ -963,16 +1024,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -988,12 +1049,14 @@
         <v>37</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8" t="s">
@@ -1005,16 +1068,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -1027,13 +1090,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -1047,16 +1110,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -1069,13 +1132,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -1089,13 +1152,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -1109,13 +1172,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -1132,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1193,50 +1256,53 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A2" s="18">
+      <c r="A2" s="15">
         <v>2</v>
       </c>
-      <c r="B2" s="18">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="19">
-        <f>SUM(I3:I7)</f>
-        <v>21</v>
-      </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-    </row>
-    <row r="3" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A3">
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="15">
+        <f>SUM(I3:I8)</f>
+        <v>24</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="17">
         <v>2.1</v>
       </c>
+      <c r="B3" s="17">
+        <v>1</v>
+      </c>
       <c r="C3" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="I3">
         <v>4</v>
@@ -1246,23 +1312,26 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4">
+      <c r="A4" s="17">
         <v>2.2000000000000002</v>
       </c>
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
       <c r="C4" s="9" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="I4">
         <v>4</v>
@@ -1271,162 +1340,182 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A5">
+    <row r="5" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="17">
         <v>2.2999999999999998</v>
       </c>
+      <c r="B5" s="17">
+        <v>1</v>
+      </c>
       <c r="C5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="17">
+        <v>2.4</v>
+      </c>
+      <c r="B6" s="17">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="B7" s="17">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+      <c r="A8" s="17">
+        <v>2.6</v>
+      </c>
+      <c r="B8" s="17">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+      <c r="A11" s="15">
+        <v>3</v>
+      </c>
+      <c r="B11" s="15">
+        <v>1</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="15">
+        <f>SUM(I12:I16)</f>
+        <v>14</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A12" s="17">
+        <v>3.1</v>
+      </c>
+      <c r="B12" s="17">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="L5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>2.4</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="L6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="57" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>2.5</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="L7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A10" s="18">
-        <v>4</v>
-      </c>
-      <c r="B10" s="18">
-        <v>1</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="13">
-        <f>SUM(I11:I14)</f>
-        <v>16</v>
-      </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11">
-        <v>5</v>
-      </c>
-      <c r="L11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>4.2</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>85</v>
-      </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="I12">
         <v>4</v>
@@ -1435,217 +1524,537 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="57" x14ac:dyDescent="0.45">
-      <c r="A13">
+    <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="17">
+        <v>3.2</v>
+      </c>
+      <c r="B13" s="17">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="17">
+        <v>3.3</v>
+      </c>
+      <c r="B14" s="17">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="L14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+      <c r="A15" s="17">
+        <v>3.4</v>
+      </c>
+      <c r="B15" s="17">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="L15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="B16" s="17">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+      <c r="A20" s="15">
+        <v>4</v>
+      </c>
+      <c r="B20" s="15">
+        <v>1</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="15">
+        <f>SUM(I21:I27)</f>
+        <v>16</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A21" s="17">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B21" s="17">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="L21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="17">
+        <v>4.2</v>
+      </c>
+      <c r="B22" s="17">
+        <v>1</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="17">
         <v>4.3</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="B23" s="17">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="L23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A24" s="17">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B24" s="17">
+        <v>1</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" t="s">
         <v>86</v>
       </c>
-      <c r="E13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" t="s">
-        <v>93</v>
-      </c>
-      <c r="I13">
-        <v>5</v>
-      </c>
-      <c r="L13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="57.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="L24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="57.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="B25" s="17">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="G25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A26" s="17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B26" s="17">
+        <v>1</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+      <c r="A27" s="17">
+        <v>4.7</v>
+      </c>
+      <c r="B27" s="17">
+        <v>1</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="15">
+        <v>6</v>
+      </c>
+      <c r="B31" s="15">
+        <v>2</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" t="s">
-        <v>96</v>
-      </c>
-      <c r="I14">
+      <c r="I31" s="15">
+        <f>SUM(I32:I37)</f>
+        <v>17</v>
+      </c>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="32" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A32" s="17">
+        <v>6.1</v>
+      </c>
+      <c r="B32" s="17">
         <v>2</v>
       </c>
-      <c r="L14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C15" s="9"/>
-      <c r="D15" s="10" t="s">
+      <c r="C32" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="L32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17">
+        <v>2</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="L33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A34" s="17">
+        <v>6.2</v>
+      </c>
+      <c r="B34" s="17">
+        <v>2</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="L34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A35" s="17">
+        <v>6.3</v>
+      </c>
+      <c r="B35" s="17">
+        <v>2</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="L35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A36" s="17">
+        <v>6.4</v>
+      </c>
+      <c r="B36" s="17">
+        <v>2</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="18">
-        <v>6</v>
-      </c>
-      <c r="B17" s="18">
-        <v>1</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="15" t="s">
+      <c r="D36" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="17">
-        <f>SUM(I18:I22)</f>
-        <v>17</v>
-      </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-    </row>
-    <row r="18" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>6.1</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="L36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="17">
+        <v>6.5</v>
+      </c>
+      <c r="B37" s="17">
+        <v>2</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="G18" t="s">
-        <v>96</v>
-      </c>
-      <c r="I18">
-        <v>5</v>
-      </c>
-      <c r="L18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C19" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19">
-        <v>4</v>
-      </c>
-      <c r="L19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>6.2</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="L20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>6.3</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="E37" t="s">
         <v>13</v>
       </c>
-      <c r="F21" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" t="s">
-        <v>91</v>
-      </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="L21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>6.4</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" t="s">
-        <v>95</v>
-      </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
-      <c r="L22" t="s">
-        <v>7</v>
-      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C57" s="9"/>
+      <c r="D57" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C58" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/task06/Scrum_v0.1.xlsx
+++ b/doc/task06/Scrum_v0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajilatha.kandiah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A1CFB9-C7BE-421F-8E15-CB49F329416A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E72B3F7-3995-4317-A961-926678F5BDE9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="117">
   <si>
     <t>ID</t>
   </si>
@@ -305,12 +305,6 @@
     <t>Christoph</t>
   </si>
   <si>
-    <t>16h</t>
-  </si>
-  <si>
-    <t>17h</t>
-  </si>
-  <si>
     <t>Creating a new view with all UI components for the day overview</t>
   </si>
   <si>
@@ -396,12 +390,6 @@
   </si>
   <si>
     <t xml:space="preserve">Rajilatha </t>
-  </si>
-  <si>
-    <t>24h</t>
-  </si>
-  <si>
-    <t>14h</t>
   </si>
 </sst>
 </file>
@@ -949,10 +937,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1006,8 +994,8 @@
       <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>54</v>
+      <c r="E2" s="8">
+        <v>10</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>54</v>
@@ -1032,8 +1020,8 @@
       <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>119</v>
+      <c r="E3" s="8">
+        <v>24</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -1049,13 +1037,13 @@
         <v>37</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>120</v>
+      <c r="E4" s="8">
+        <v>14</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -1068,7 +1056,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>41</v>
@@ -1076,8 +1064,8 @@
       <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>89</v>
+      <c r="E5" s="8">
+        <v>16</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -1098,7 +1086,9 @@
       <c r="D6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8">
+        <v>8</v>
+      </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
@@ -1118,8 +1108,8 @@
       <c r="D7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>90</v>
+      <c r="E7" s="8">
+        <v>17</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -1140,7 +1130,9 @@
       <c r="D8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8">
+        <v>20</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
@@ -1160,7 +1152,9 @@
       <c r="D9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="8">
+        <v>20</v>
+      </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
@@ -1180,11 +1174,19 @@
       <c r="D10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="8">
+        <v>15</v>
+      </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E12">
+        <f>SUM(E2:E10)</f>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1197,7 +1199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1266,7 +1268,7 @@
         <v>55</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -1293,7 +1295,7 @@
         <v>75</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -1319,10 +1321,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -1479,7 +1481,7 @@
         <v>37</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -1506,7 +1508,7 @@
         <v>68</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
         <v>56</v>
@@ -1515,7 +1517,7 @@
         <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I12">
         <v>4</v>
@@ -1532,19 +1534,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" t="s">
         <v>110</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" t="s">
-        <v>112</v>
       </c>
       <c r="F13" t="s">
         <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1564,10 +1566,10 @@
         <v>77</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F14" t="s">
         <v>87</v>
@@ -1590,10 +1592,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E15" t="s">
         <v>73</v>
@@ -1619,10 +1621,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
@@ -1659,10 +1661,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -1689,7 +1691,7 @@
         <v>68</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
         <v>56</v>
@@ -1715,13 +1717,13 @@
         <v>1</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F22" t="s">
         <v>86</v>
@@ -1747,7 +1749,7 @@
         <v>77</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s">
         <v>71</v>
@@ -1773,10 +1775,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
         <v>82</v>
@@ -1805,7 +1807,7 @@
         <v>81</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E25" t="s">
         <v>70</v>
@@ -1831,10 +1833,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
         <v>56</v>
@@ -1860,10 +1862,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -2032,10 +2034,10 @@
         <v>2</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E37" t="s">
         <v>13</v>
